--- a/Team-Data/2011-12/4-2-2011-12.xlsx
+++ b/Team-Data/2011-12/4-2-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,10 +811,10 @@
         <v>1.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF2" t="n">
         <v>11</v>
@@ -771,7 +838,7 @@
         <v>7</v>
       </c>
       <c r="AM2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN2" t="n">
         <v>7</v>
@@ -798,13 +865,13 @@
         <v>10</v>
       </c>
       <c r="AV2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW2" t="n">
         <v>13</v>
       </c>
       <c r="AX2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY2" t="n">
         <v>17</v>
@@ -816,7 +883,7 @@
         <v>20</v>
       </c>
       <c r="BB2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC2" t="n">
         <v>12</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-2-2011-12</t>
+          <t>2012-04-02</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>1.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AE3" t="n">
         <v>10</v>
@@ -971,7 +1038,7 @@
         <v>30</v>
       </c>
       <c r="AS3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AT3" t="n">
         <v>30</v>
@@ -989,7 +1056,7 @@
         <v>6</v>
       </c>
       <c r="AY3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ3" t="n">
         <v>21</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-2-2011-12</t>
+          <t>2012-04-02</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-12.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
@@ -1147,7 +1214,7 @@
         <v>15</v>
       </c>
       <c r="AQ4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR4" t="n">
         <v>27</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-2-2011-12</t>
+          <t>2012-04-02</t>
         </is>
       </c>
     </row>
@@ -1212,22 +1279,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" t="n">
         <v>42</v>
       </c>
       <c r="F5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" t="n">
-        <v>0.764</v>
+        <v>0.778</v>
       </c>
       <c r="H5" t="n">
         <v>48.1</v>
       </c>
       <c r="I5" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J5" t="n">
         <v>82.5</v>
@@ -1242,19 +1309,19 @@
         <v>16.7</v>
       </c>
       <c r="N5" t="n">
-        <v>0.378</v>
+        <v>0.38</v>
       </c>
       <c r="O5" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="P5" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.722</v>
+        <v>0.726</v>
       </c>
       <c r="R5" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="S5" t="n">
         <v>32.2</v>
@@ -1266,7 +1333,7 @@
         <v>23</v>
       </c>
       <c r="V5" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="W5" t="n">
         <v>7.1</v>
@@ -1284,10 +1351,10 @@
         <v>17.6</v>
       </c>
       <c r="AB5" t="n">
-        <v>96.8</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -1302,7 +1369,7 @@
         <v>1</v>
       </c>
       <c r="AH5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI5" t="n">
         <v>9</v>
@@ -1314,7 +1381,7 @@
         <v>9</v>
       </c>
       <c r="AL5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM5" t="n">
         <v>19</v>
@@ -1329,7 +1396,7 @@
         <v>21</v>
       </c>
       <c r="AQ5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR5" t="n">
         <v>1</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-2-2011-12</t>
+          <t>2012-04-02</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-5.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE6" t="n">
         <v>27</v>
@@ -1535,7 +1602,7 @@
         <v>27</v>
       </c>
       <c r="AY6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ6" t="n">
         <v>23</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-2-2011-12</t>
+          <t>2012-04-02</t>
         </is>
       </c>
     </row>
@@ -1576,28 +1643,28 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" t="n">
         <v>30</v>
       </c>
       <c r="F7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7" t="n">
-        <v>0.556</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="H7" t="n">
         <v>48.4</v>
       </c>
       <c r="I7" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="J7" t="n">
-        <v>81.5</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0.439</v>
+        <v>0.44</v>
       </c>
       <c r="L7" t="n">
         <v>7.5</v>
@@ -1606,34 +1673,34 @@
         <v>22.5</v>
       </c>
       <c r="N7" t="n">
-        <v>0.331</v>
+        <v>0.334</v>
       </c>
       <c r="O7" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="P7" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.758</v>
+        <v>0.761</v>
       </c>
       <c r="R7" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="S7" t="n">
         <v>32.4</v>
       </c>
       <c r="T7" t="n">
-        <v>42.3</v>
+        <v>42.4</v>
       </c>
       <c r="U7" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="V7" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W7" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X7" t="n">
         <v>5.1</v>
@@ -1642,40 +1709,40 @@
         <v>4.2</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="AA7" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="AB7" t="n">
-        <v>94.40000000000001</v>
+        <v>94.8</v>
       </c>
       <c r="AC7" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE7" t="n">
         <v>10</v>
       </c>
       <c r="AF7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI7" t="n">
         <v>20</v>
       </c>
       <c r="AJ7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL7" t="n">
         <v>6</v>
@@ -1687,13 +1754,13 @@
         <v>21</v>
       </c>
       <c r="AO7" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AP7" t="n">
         <v>25</v>
       </c>
       <c r="AQ7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR7" t="n">
         <v>28</v>
@@ -1702,19 +1769,19 @@
         <v>5</v>
       </c>
       <c r="AT7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU7" t="n">
         <v>13</v>
       </c>
       <c r="AV7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW7" t="n">
         <v>4</v>
       </c>
       <c r="AX7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY7" t="n">
         <v>2</v>
@@ -1726,10 +1793,10 @@
         <v>25</v>
       </c>
       <c r="BB7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-2-2011-12</t>
+          <t>2012-04-02</t>
         </is>
       </c>
     </row>
@@ -1836,13 +1903,13 @@
         <v>1.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE8" t="n">
         <v>12</v>
       </c>
       <c r="AF8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG8" t="n">
         <v>14</v>
@@ -1863,7 +1930,7 @@
         <v>15</v>
       </c>
       <c r="AM8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN8" t="n">
         <v>23</v>
@@ -1893,7 +1960,7 @@
         <v>28</v>
       </c>
       <c r="AW8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX8" t="n">
         <v>13</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-2-2011-12</t>
+          <t>2012-04-02</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-5.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AE9" t="n">
         <v>23</v>
@@ -2048,7 +2115,7 @@
         <v>27</v>
       </c>
       <c r="AN9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO9" t="n">
         <v>15</v>
@@ -2057,7 +2124,7 @@
         <v>17</v>
       </c>
       <c r="AQ9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR9" t="n">
         <v>11</v>
@@ -2093,7 +2160,7 @@
         <v>28</v>
       </c>
       <c r="BC9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-2-2011-12</t>
+          <t>2012-04-02</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-2-2011-12</t>
+          <t>2012-04-02</t>
         </is>
       </c>
     </row>
@@ -2304,61 +2371,61 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" t="n">
         <v>25</v>
       </c>
       <c r="G11" t="n">
-        <v>0.537</v>
+        <v>0.528</v>
       </c>
       <c r="H11" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I11" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="J11" t="n">
-        <v>83.40000000000001</v>
+        <v>83.3</v>
       </c>
       <c r="K11" t="n">
         <v>0.453</v>
       </c>
       <c r="L11" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="M11" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="N11" t="n">
-        <v>0.358</v>
+        <v>0.359</v>
       </c>
       <c r="O11" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="P11" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="Q11" t="n">
         <v>0.785</v>
       </c>
       <c r="R11" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S11" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="T11" t="n">
-        <v>42.1</v>
+        <v>42.2</v>
       </c>
       <c r="U11" t="n">
         <v>21</v>
       </c>
       <c r="V11" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W11" t="n">
         <v>7.3</v>
@@ -2379,13 +2446,13 @@
         <v>98.09999999999999</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE11" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AF11" t="n">
         <v>15</v>
@@ -2394,7 +2461,7 @@
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI11" t="n">
         <v>5</v>
@@ -2406,13 +2473,13 @@
         <v>11</v>
       </c>
       <c r="AL11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM11" t="n">
         <v>15</v>
       </c>
       <c r="AN11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO11" t="n">
         <v>21</v>
@@ -2427,16 +2494,16 @@
         <v>15</v>
       </c>
       <c r="AS11" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AT11" t="n">
         <v>16</v>
       </c>
       <c r="AU11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW11" t="n">
         <v>19</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-2-2011-12</t>
+          <t>2012-04-02</t>
         </is>
       </c>
     </row>
@@ -2564,16 +2631,16 @@
         <v>2.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AE12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF12" t="n">
         <v>6</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH12" t="n">
         <v>11</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-2-2011-12</t>
+          <t>2012-04-02</t>
         </is>
       </c>
     </row>
@@ -2668,25 +2735,25 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F13" t="n">
         <v>21</v>
       </c>
       <c r="G13" t="n">
-        <v>0.604</v>
+        <v>0.596</v>
       </c>
       <c r="H13" t="n">
         <v>48.5</v>
       </c>
       <c r="I13" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J13" t="n">
-        <v>81.09999999999999</v>
+        <v>81</v>
       </c>
       <c r="K13" t="n">
         <v>0.452</v>
@@ -2695,67 +2762,67 @@
         <v>7.6</v>
       </c>
       <c r="M13" t="n">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
       <c r="N13" t="n">
         <v>0.351</v>
       </c>
       <c r="O13" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="P13" t="n">
-        <v>23.7</v>
+        <v>23.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="R13" t="n">
         <v>12.1</v>
       </c>
       <c r="S13" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="T13" t="n">
-        <v>41.8</v>
+        <v>41.6</v>
       </c>
       <c r="U13" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="V13" t="n">
         <v>13.3</v>
       </c>
       <c r="W13" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="X13" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y13" t="n">
         <v>4.4</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="AB13" t="n">
-        <v>97.09999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="AC13" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="AD13" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AE13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF13" t="n">
         <v>6</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH13" t="n">
         <v>7</v>
@@ -2779,10 +2846,10 @@
         <v>12</v>
       </c>
       <c r="AO13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ13" t="n">
         <v>29</v>
@@ -2791,13 +2858,13 @@
         <v>10</v>
       </c>
       <c r="AS13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT13" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AU13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV13" t="n">
         <v>3</v>
@@ -2806,19 +2873,19 @@
         <v>10</v>
       </c>
       <c r="AX13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY13" t="n">
         <v>6</v>
       </c>
       <c r="AZ13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA13" t="n">
         <v>4</v>
       </c>
       <c r="BB13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC13" t="n">
         <v>9</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-2-2011-12</t>
+          <t>2012-04-02</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>2.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE14" t="n">
         <v>5</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-2-2011-12</t>
+          <t>2012-04-02</t>
         </is>
       </c>
     </row>
@@ -3032,37 +3099,37 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F15" t="n">
         <v>22</v>
       </c>
       <c r="G15" t="n">
-        <v>0.569</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H15" t="n">
         <v>48.4</v>
       </c>
       <c r="I15" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="J15" t="n">
-        <v>82.8</v>
+        <v>82.7</v>
       </c>
       <c r="K15" t="n">
-        <v>0.446</v>
+        <v>0.447</v>
       </c>
       <c r="L15" t="n">
         <v>3.8</v>
       </c>
       <c r="M15" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="N15" t="n">
-        <v>0.314</v>
+        <v>0.316</v>
       </c>
       <c r="O15" t="n">
         <v>17.5</v>
@@ -3071,7 +3138,7 @@
         <v>23.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.756</v>
+        <v>0.753</v>
       </c>
       <c r="R15" t="n">
         <v>12.5</v>
@@ -3083,22 +3150,22 @@
         <v>42.3</v>
       </c>
       <c r="U15" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="V15" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W15" t="n">
         <v>9.9</v>
       </c>
       <c r="X15" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y15" t="n">
         <v>5.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA15" t="n">
         <v>19.9</v>
@@ -3107,22 +3174,22 @@
         <v>95.2</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE15" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AF15" t="n">
         <v>9</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI15" t="n">
         <v>13</v>
@@ -3131,7 +3198,7 @@
         <v>8</v>
       </c>
       <c r="AK15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL15" t="n">
         <v>29</v>
@@ -3140,7 +3207,7 @@
         <v>29</v>
       </c>
       <c r="AN15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO15" t="n">
         <v>11</v>
@@ -3149,7 +3216,7 @@
         <v>13</v>
       </c>
       <c r="AQ15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR15" t="n">
         <v>6</v>
@@ -3158,7 +3225,7 @@
         <v>22</v>
       </c>
       <c r="AT15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU15" t="n">
         <v>24</v>
@@ -3176,7 +3243,7 @@
         <v>23</v>
       </c>
       <c r="AZ15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA15" t="n">
         <v>15</v>
@@ -3185,7 +3252,7 @@
         <v>18</v>
       </c>
       <c r="BC15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-2-2011-12</t>
+          <t>2012-04-02</t>
         </is>
       </c>
     </row>
@@ -3331,7 +3398,7 @@
         <v>7</v>
       </c>
       <c r="AQ16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR16" t="n">
         <v>25</v>
@@ -3340,7 +3407,7 @@
         <v>10</v>
       </c>
       <c r="AT16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU16" t="n">
         <v>16</v>
@@ -3361,7 +3428,7 @@
         <v>17</v>
       </c>
       <c r="BA16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB16" t="n">
         <v>4</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-2-2011-12</t>
+          <t>2012-04-02</t>
         </is>
       </c>
     </row>
@@ -3396,112 +3463,112 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F17" t="n">
         <v>28</v>
       </c>
       <c r="G17" t="n">
-        <v>0.472</v>
+        <v>0.462</v>
       </c>
       <c r="H17" t="n">
         <v>48.1</v>
       </c>
       <c r="I17" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J17" t="n">
-        <v>85.59999999999999</v>
+        <v>85.7</v>
       </c>
       <c r="K17" t="n">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="L17" t="n">
         <v>6.8</v>
       </c>
       <c r="M17" t="n">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="N17" t="n">
-        <v>0.347</v>
+        <v>0.346</v>
       </c>
       <c r="O17" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="P17" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.786</v>
+        <v>0.787</v>
       </c>
       <c r="R17" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="S17" t="n">
         <v>29.3</v>
       </c>
       <c r="T17" t="n">
-        <v>41.9</v>
+        <v>41.8</v>
       </c>
       <c r="U17" t="n">
         <v>23.5</v>
       </c>
       <c r="V17" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="W17" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X17" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Y17" t="n">
         <v>4.7</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>4.6</v>
       </c>
       <c r="Z17" t="n">
         <v>19.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AB17" t="n">
-        <v>98.7</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AE17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF17" t="n">
         <v>19</v>
       </c>
       <c r="AG17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH17" t="n">
         <v>26</v>
       </c>
       <c r="AI17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ17" t="n">
         <v>2</v>
       </c>
       <c r="AK17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL17" t="n">
         <v>13</v>
       </c>
       <c r="AM17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN17" t="n">
         <v>14</v>
@@ -3537,7 +3604,7 @@
         <v>19</v>
       </c>
       <c r="AY17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ17" t="n">
         <v>13</v>
@@ -3546,7 +3613,7 @@
         <v>18</v>
       </c>
       <c r="BB17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC17" t="n">
         <v>18</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-2-2011-12</t>
+          <t>2012-04-02</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" t="n">
         <v>25</v>
       </c>
       <c r="F18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G18" t="n">
-        <v>0.455</v>
+        <v>0.463</v>
       </c>
       <c r="H18" t="n">
         <v>48.4</v>
@@ -3596,19 +3663,19 @@
         <v>35.9</v>
       </c>
       <c r="J18" t="n">
-        <v>82.40000000000001</v>
+        <v>82.5</v>
       </c>
       <c r="K18" t="n">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="L18" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M18" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="N18" t="n">
-        <v>0.338</v>
+        <v>0.335</v>
       </c>
       <c r="O18" t="n">
         <v>19.8</v>
@@ -3617,22 +3684,22 @@
         <v>25.6</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.773</v>
+        <v>0.774</v>
       </c>
       <c r="R18" t="n">
         <v>12.5</v>
       </c>
       <c r="S18" t="n">
-        <v>31.7</v>
+        <v>31.9</v>
       </c>
       <c r="T18" t="n">
-        <v>44.2</v>
+        <v>44.4</v>
       </c>
       <c r="U18" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="V18" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W18" t="n">
         <v>7</v>
@@ -3644,16 +3711,16 @@
         <v>5.6</v>
       </c>
       <c r="Z18" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="AA18" t="n">
         <v>21.9</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.90000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -3665,7 +3732,7 @@
         <v>21</v>
       </c>
       <c r="AG18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH18" t="n">
         <v>17</v>
@@ -3680,7 +3747,7 @@
         <v>25</v>
       </c>
       <c r="AL18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM18" t="n">
         <v>6</v>
@@ -3695,7 +3762,7 @@
         <v>5</v>
       </c>
       <c r="AQ18" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AR18" t="n">
         <v>7</v>
@@ -3710,7 +3777,7 @@
         <v>25</v>
       </c>
       <c r="AV18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW18" t="n">
         <v>25</v>
@@ -3728,10 +3795,10 @@
         <v>3</v>
       </c>
       <c r="BB18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-2-2011-12</t>
+          <t>2012-04-02</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-5.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE19" t="n">
         <v>23</v>
@@ -3847,7 +3914,7 @@
         <v>26</v>
       </c>
       <c r="AG19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH19" t="n">
         <v>28</v>
@@ -3892,10 +3959,10 @@
         <v>22</v>
       </c>
       <c r="AV19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX19" t="n">
         <v>28</v>
@@ -3910,10 +3977,10 @@
         <v>16</v>
       </c>
       <c r="BB19" t="n">
+        <v>24</v>
+      </c>
+      <c r="BC19" t="n">
         <v>25</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>26</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-2-2011-12</t>
+          <t>2012-04-02</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-4.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
@@ -4032,7 +4099,7 @@
         <v>28</v>
       </c>
       <c r="AH20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI20" t="n">
         <v>24</v>
@@ -4041,7 +4108,7 @@
         <v>28</v>
       </c>
       <c r="AK20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL20" t="n">
         <v>28</v>
@@ -4080,13 +4147,13 @@
         <v>21</v>
       </c>
       <c r="AX20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY20" t="n">
         <v>24</v>
       </c>
       <c r="AZ20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA20" t="n">
         <v>27</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-2-2011-12</t>
+          <t>2012-04-02</t>
         </is>
       </c>
     </row>
@@ -4202,19 +4269,19 @@
         <v>2.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF21" t="n">
         <v>16</v>
       </c>
       <c r="AG21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI21" t="n">
         <v>21</v>
@@ -4226,13 +4293,13 @@
         <v>23</v>
       </c>
       <c r="AL21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM21" t="n">
         <v>3</v>
       </c>
       <c r="AN21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO21" t="n">
         <v>6</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-2-2011-12</t>
+          <t>2012-04-02</t>
         </is>
       </c>
     </row>
@@ -4306,37 +4373,37 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E22" t="n">
         <v>40</v>
       </c>
       <c r="F22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G22" t="n">
-        <v>0.755</v>
+        <v>0.769</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>37.6</v>
+        <v>37.7</v>
       </c>
       <c r="J22" t="n">
-        <v>78.7</v>
+        <v>78.8</v>
       </c>
       <c r="K22" t="n">
         <v>0.478</v>
       </c>
       <c r="L22" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="M22" t="n">
         <v>19.9</v>
       </c>
       <c r="N22" t="n">
-        <v>0.357</v>
+        <v>0.359</v>
       </c>
       <c r="O22" t="n">
         <v>20.9</v>
@@ -4345,7 +4412,7 @@
         <v>26.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.797</v>
+        <v>0.799</v>
       </c>
       <c r="R22" t="n">
         <v>10.7</v>
@@ -4357,34 +4424,34 @@
         <v>43.4</v>
       </c>
       <c r="U22" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="V22" t="n">
         <v>16.3</v>
       </c>
       <c r="W22" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X22" t="n">
         <v>7.9</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z22" t="n">
         <v>20.2</v>
       </c>
       <c r="AA22" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AB22" t="n">
-        <v>103.2</v>
+        <v>103.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4396,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ22" t="n">
         <v>26</v>
@@ -4408,13 +4475,13 @@
         <v>2</v>
       </c>
       <c r="AL22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM22" t="n">
         <v>12</v>
       </c>
       <c r="AN22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO22" t="n">
         <v>1</v>
@@ -4432,7 +4499,7 @@
         <v>3</v>
       </c>
       <c r="AT22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU22" t="n">
         <v>28</v>
@@ -4441,7 +4508,7 @@
         <v>29</v>
       </c>
       <c r="AW22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-2-2011-12</t>
+          <t>2012-04-02</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>1.7</v>
       </c>
       <c r="AD23" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE23" t="n">
         <v>6</v>
@@ -4578,7 +4645,7 @@
         <v>6</v>
       </c>
       <c r="AH23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI23" t="n">
         <v>27</v>
@@ -4602,7 +4669,7 @@
         <v>26</v>
       </c>
       <c r="AP23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-2-2011-12</t>
+          <t>2012-04-02</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>5.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AE24" t="n">
         <v>12</v>
@@ -4757,13 +4824,13 @@
         <v>11</v>
       </c>
       <c r="AG24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH24" t="n">
         <v>25</v>
       </c>
       <c r="AI24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ24" t="n">
         <v>4</v>
@@ -4805,7 +4872,7 @@
         <v>1</v>
       </c>
       <c r="AW24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX24" t="n">
         <v>18</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-2-2011-12</t>
+          <t>2012-04-02</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-0.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AE25" t="n">
         <v>18</v>
@@ -4948,7 +5015,7 @@
         <v>12</v>
       </c>
       <c r="AJ25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK25" t="n">
         <v>8</v>
@@ -5005,7 +5072,7 @@
         <v>15</v>
       </c>
       <c r="BC25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-2-2011-12</t>
+          <t>2012-04-02</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E26" t="n">
         <v>25</v>
       </c>
       <c r="F26" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G26" t="n">
-        <v>0.463</v>
+        <v>0.472</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
@@ -5058,22 +5125,22 @@
         <v>0.446</v>
       </c>
       <c r="L26" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="M26" t="n">
         <v>20.5</v>
       </c>
       <c r="N26" t="n">
-        <v>0.345</v>
+        <v>0.341</v>
       </c>
       <c r="O26" t="n">
         <v>17.3</v>
       </c>
       <c r="P26" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.793</v>
+        <v>0.792</v>
       </c>
       <c r="R26" t="n">
         <v>11</v>
@@ -5085,7 +5152,7 @@
         <v>40.7</v>
       </c>
       <c r="U26" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V26" t="n">
         <v>14.1</v>
@@ -5097,7 +5164,7 @@
         <v>5.1</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z26" t="n">
         <v>19.7</v>
@@ -5109,22 +5176,22 @@
         <v>97.2</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AD26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE26" t="n">
         <v>19</v>
       </c>
       <c r="AF26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI26" t="n">
         <v>15</v>
@@ -5142,7 +5209,7 @@
         <v>9</v>
       </c>
       <c r="AN26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO26" t="n">
         <v>12</v>
@@ -5157,7 +5224,7 @@
         <v>19</v>
       </c>
       <c r="AS26" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AT26" t="n">
         <v>25</v>
@@ -5175,7 +5242,7 @@
         <v>15</v>
       </c>
       <c r="AY26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ26" t="n">
         <v>16</v>
@@ -5184,7 +5251,7 @@
         <v>12</v>
       </c>
       <c r="BB26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC26" t="n">
         <v>16</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-2-2011-12</t>
+          <t>2012-04-02</t>
         </is>
       </c>
     </row>
@@ -5216,61 +5283,61 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F27" t="n">
         <v>34</v>
       </c>
       <c r="G27" t="n">
-        <v>0.358</v>
+        <v>0.346</v>
       </c>
       <c r="H27" t="n">
         <v>48.3</v>
       </c>
       <c r="I27" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J27" t="n">
         <v>86.5</v>
       </c>
       <c r="K27" t="n">
-        <v>0.431</v>
+        <v>0.43</v>
       </c>
       <c r="L27" t="n">
         <v>6.3</v>
       </c>
       <c r="M27" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="N27" t="n">
         <v>0.313</v>
       </c>
       <c r="O27" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="P27" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.75</v>
+        <v>0.749</v>
       </c>
       <c r="R27" t="n">
         <v>13.7</v>
       </c>
       <c r="S27" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="T27" t="n">
-        <v>43.5</v>
+        <v>43.4</v>
       </c>
       <c r="U27" t="n">
         <v>18.8</v>
       </c>
       <c r="V27" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W27" t="n">
         <v>8.300000000000001</v>
@@ -5288,25 +5355,25 @@
         <v>20.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>98.7</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC27" t="n">
-        <v>-5.3</v>
+        <v>-5.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AE27" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AF27" t="n">
         <v>25</v>
       </c>
       <c r="AG27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI27" t="n">
         <v>11</v>
@@ -5318,10 +5385,10 @@
         <v>27</v>
       </c>
       <c r="AL27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN27" t="n">
         <v>28</v>
@@ -5333,13 +5400,13 @@
         <v>12</v>
       </c>
       <c r="AQ27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR27" t="n">
         <v>2</v>
       </c>
       <c r="AS27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT27" t="n">
         <v>6</v>
@@ -5348,7 +5415,7 @@
         <v>26</v>
       </c>
       <c r="AV27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW27" t="n">
         <v>5</v>
@@ -5357,19 +5424,19 @@
         <v>20</v>
       </c>
       <c r="AY27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ27" t="n">
         <v>14</v>
       </c>
       <c r="BA27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC27" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-2-2011-12</t>
+          <t>2012-04-02</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>4.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE28" t="n">
         <v>4</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-2-2011-12</t>
+          <t>2012-04-02</t>
         </is>
       </c>
     </row>
@@ -5658,10 +5725,10 @@
         <v>-3.7</v>
       </c>
       <c r="AD29" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF29" t="n">
         <v>26</v>
@@ -5670,7 +5737,7 @@
         <v>27</v>
       </c>
       <c r="AH29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI29" t="n">
         <v>25</v>
@@ -5697,7 +5764,7 @@
         <v>16</v>
       </c>
       <c r="AQ29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR29" t="n">
         <v>23</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-2-2011-12</t>
+          <t>2012-04-02</t>
         </is>
       </c>
     </row>
@@ -5762,22 +5829,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F30" t="n">
         <v>26</v>
       </c>
       <c r="G30" t="n">
-        <v>0.519</v>
+        <v>0.509</v>
       </c>
       <c r="H30" t="n">
         <v>48.8</v>
       </c>
       <c r="I30" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J30" t="n">
         <v>84.09999999999999</v>
@@ -5789,13 +5856,13 @@
         <v>3.8</v>
       </c>
       <c r="M30" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="N30" t="n">
-        <v>0.306</v>
+        <v>0.307</v>
       </c>
       <c r="O30" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="P30" t="n">
         <v>25</v>
@@ -5822,25 +5889,25 @@
         <v>8.300000000000001</v>
       </c>
       <c r="X30" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Y30" t="n">
         <v>5.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="AA30" t="n">
         <v>20.8</v>
       </c>
       <c r="AB30" t="n">
-        <v>98.90000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE30" t="n">
         <v>16</v>
@@ -5879,13 +5946,13 @@
         <v>8</v>
       </c>
       <c r="AQ30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR30" t="n">
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT30" t="n">
         <v>4</v>
@@ -5897,7 +5964,7 @@
         <v>10</v>
       </c>
       <c r="AW30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX30" t="n">
         <v>4</v>
@@ -5909,10 +5976,10 @@
         <v>29</v>
       </c>
       <c r="BA30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC30" t="n">
         <v>19</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-2-2011-12</t>
+          <t>2012-04-02</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E31" t="n">
         <v>12</v>
       </c>
       <c r="F31" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G31" t="n">
-        <v>0.226</v>
+        <v>0.231</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
@@ -5971,31 +6038,31 @@
         <v>5.2</v>
       </c>
       <c r="M31" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="N31" t="n">
-        <v>0.321</v>
+        <v>0.319</v>
       </c>
       <c r="O31" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="P31" t="n">
         <v>21.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.726</v>
+        <v>0.722</v>
       </c>
       <c r="R31" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S31" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T31" t="n">
-        <v>41.5</v>
+        <v>41.7</v>
       </c>
       <c r="U31" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="V31" t="n">
         <v>15.3</v>
@@ -6004,31 +6071,31 @@
         <v>7.8</v>
       </c>
       <c r="X31" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z31" t="n">
         <v>21.4</v>
       </c>
       <c r="AA31" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AB31" t="n">
-        <v>93.2</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="AC31" t="n">
-        <v>-6.8</v>
+        <v>-6.7</v>
       </c>
       <c r="AD31" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
       </c>
       <c r="AF31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG31" t="n">
         <v>29</v>
@@ -6055,13 +6122,13 @@
         <v>24</v>
       </c>
       <c r="AO31" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AP31" t="n">
         <v>19</v>
       </c>
       <c r="AQ31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR31" t="n">
         <v>12</v>
@@ -6070,10 +6137,10 @@
         <v>21</v>
       </c>
       <c r="AT31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AV31" t="n">
         <v>21</v>
@@ -6088,13 +6155,13 @@
         <v>7</v>
       </c>
       <c r="AZ31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA31" t="n">
         <v>24</v>
       </c>
       <c r="BB31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC31" t="n">
         <v>29</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-2-2011-12</t>
+          <t>2012-04-02</t>
         </is>
       </c>
     </row>
